--- a/Display/RGB Display Spreadsheet.xlsx
+++ b/Display/RGB Display Spreadsheet.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RGB Color Map" sheetId="1" r:id="rId1"/>
+    <sheet name="Excel Function  Examples" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="21">
   <si>
     <t>R</t>
   </si>
@@ -48,6 +49,45 @@
   </si>
   <si>
     <t>6 Bytes</t>
+  </si>
+  <si>
+    <t>Cell A1 contains the name of another cell: A3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Cell A2 contains the formula: =INDIRECT(A1) which causes the value of the cell to be what is in A3</t>
+  </si>
+  <si>
+    <t>Cell A3 contains: Hi</t>
+  </si>
+  <si>
+    <t>Cell A5 contains the formula: =ADDRESS(1,1)</t>
+  </si>
+  <si>
+    <t>Cell A6 contains the formula: =ADDRESS(1,1,1) // Absolute</t>
+  </si>
+  <si>
+    <t>Cell A7 contains the formula: =ADDRESS(1,1,2) // Absolute Row, Relative Column</t>
+  </si>
+  <si>
+    <t>Cell A8 contains the formula: =ADDRESS(1,1,2) // Relative Row, Absolute Column</t>
+  </si>
+  <si>
+    <t>Cell A9 contains the formula: =ADDRESS(1,1,4) // Relative</t>
+  </si>
+  <si>
+    <t>Cell A11 contains the formula: =CELL("address", A1)</t>
+  </si>
+  <si>
+    <t>=CELL("row",INDIRECT(CELL("address",A1)))</t>
+  </si>
+  <si>
+    <t>=CELL("col",INDIRECT(CELL("address",A1)))</t>
   </si>
 </sst>
 </file>
@@ -154,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -167,6 +207,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,7 +223,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -196,28 +258,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -499,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1260,22 +1301,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AG17">
-    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"RG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"RB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"GB"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -1285,4 +1326,152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="89" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f ca="1">INDIRECT(A1)</f>
+        <v>Hi</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>ADDRESS(1,1)</f>
+        <v>$A$1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>ADDRESS(1,1,1)</f>
+        <v>$A$1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>ADDRESS(1,1,2)</f>
+        <v>A$1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>ADDRESS(1,1,3)</f>
+        <v>$A1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>ADDRESS(1,1,4)</f>
+        <v>A1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f ca="1">CELL("address", A1)</f>
+        <v>$A$1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" ref="A12:A14" ca="1" si="0">CELL("address", A2)</f>
+        <v>$A$2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>$A$3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>$A$4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f ca="1">CELL("row",INDIRECT(CELL("address",A1)))</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f ca="1">CELL("col",INDIRECT(CELL("address",A1)))</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f ca="1">TEXT(A11,"")</f>
+        <v>$A$1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Display/RGB Display Spreadsheet.xlsx
+++ b/Display/RGB Display Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\MtSAC\ELEC74-III\2022-spring\2022-Class-Project\Display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AFC28C-A146-4752-BF57-024784C5E753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2013584A-02AB-4C4E-B6FD-207777767FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="100">
   <si>
     <t>R</t>
   </si>
@@ -515,13 +515,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1001,9 +1001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DP67"/>
+  <dimension ref="A1:DP70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1168,51 +1170,51 @@
       </c>
     </row>
     <row r="2" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BS2" s="17" t="s">
+      <c r="BS2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="19"/>
-      <c r="BV2" s="17" t="s">
+      <c r="BT2" s="17"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BW2" s="18"/>
-      <c r="BX2" s="19"/>
-      <c r="BY2" s="17" t="s">
+      <c r="BW2" s="17"/>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="19"/>
-      <c r="CB2" s="17" t="s">
+      <c r="BZ2" s="17"/>
+      <c r="CA2" s="18"/>
+      <c r="CB2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18" t="s">
+      <c r="CC2" s="17"/>
+      <c r="CD2" s="17"/>
+      <c r="CE2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="19"/>
-      <c r="CH2" s="17" t="s">
+      <c r="CF2" s="17"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="CI2" s="18"/>
-      <c r="CJ2" s="19"/>
-      <c r="CK2" s="17" t="s">
+      <c r="CI2" s="17"/>
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="CL2" s="18"/>
-      <c r="CM2" s="19"/>
-      <c r="CN2" s="17" t="s">
+      <c r="CL2" s="17"/>
+      <c r="CM2" s="18"/>
+      <c r="CN2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CO2" s="18"/>
-      <c r="CP2" s="19"/>
-      <c r="CQ2" s="17" t="s">
+      <c r="CO2" s="17"/>
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="CR2" s="18"/>
-      <c r="CS2" s="19"/>
+      <c r="CR2" s="17"/>
+      <c r="CS2" s="18"/>
       <c r="CT2" s="11"/>
       <c r="CU2" s="11" t="s">
         <v>29</v>
@@ -1598,9 +1600,7 @@
       <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1614,79 +1614,43 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AL4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
-      <c r="AQ4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
-      <c r="AT4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
-      <c r="AZ4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
@@ -1718,7 +1682,7 @@
       </c>
       <c r="BU4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;BU$1)="B",INDIRECT($BR4&amp;BU$1)="RB",INDIRECT($BR4&amp;BU$1)="GB",INDIRECT($BR4&amp;BU$1)="RGB"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;BV$1)="R",INDIRECT($BR4&amp;BV$1)="RG",INDIRECT($BR4&amp;BV$1)="RB",INDIRECT($BR4&amp;BV$1)="RGB"),1,0)</f>
@@ -1730,7 +1694,7 @@
       </c>
       <c r="BX4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;BX$1)="B",INDIRECT($BR4&amp;BX$1)="RB",INDIRECT($BR4&amp;BX$1)="GB",INDIRECT($BR4&amp;BX$1)="RGB"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;BY$1)="R",INDIRECT($BR4&amp;BY$1)="RG",INDIRECT($BR4&amp;BY$1)="RB",INDIRECT($BR4&amp;BY$1)="RGB"),1,0)</f>
@@ -1742,7 +1706,7 @@
       </c>
       <c r="CA4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;CA$1)="B",INDIRECT($BR4&amp;CA$1)="RB",INDIRECT($BR4&amp;CA$1)="GB",INDIRECT($BR4&amp;CA$1)="RGB"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;CB$1)="R",INDIRECT($BR4&amp;CB$1)="RG",INDIRECT($BR4&amp;CB$1)="RB",INDIRECT($BR4&amp;CB$1)="RGB"),1,0)</f>
@@ -1754,7 +1718,7 @@
       </c>
       <c r="CD4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;CD$1)="B",INDIRECT($BR4&amp;CD$1)="RB",INDIRECT($BR4&amp;CD$1)="GB",INDIRECT($BR4&amp;CD$1)="RGB"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;CE$1)="R",INDIRECT($BR4&amp;CE$1)="RG",INDIRECT($BR4&amp;CE$1)="RB",INDIRECT($BR4&amp;CE$1)="RGB"),1,0)</f>
@@ -1766,7 +1730,7 @@
       </c>
       <c r="CG4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;CG$1)="B",INDIRECT($BR4&amp;CG$1)="RB",INDIRECT($BR4&amp;CG$1)="GB",INDIRECT($BR4&amp;CG$1)="RGB"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;CH$1)="R",INDIRECT($BR4&amp;CH$1)="RG",INDIRECT($BR4&amp;CH$1)="RB",INDIRECT($BR4&amp;CH$1)="RGB"),1,0)</f>
@@ -1794,11 +1758,11 @@
       </c>
       <c r="CN4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;CN$1)="R",INDIRECT($BR4&amp;CN$1)="RG",INDIRECT($BR4&amp;CN$1)="RB",INDIRECT($BR4&amp;CN$1)="RGB"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO4" s="16">
         <f t="shared" ref="CO4:CO67" ca="1" si="7">IF(OR(INDIRECT($BR4&amp;CO$1)="G",INDIRECT($BR4&amp;CO$1)="RG",INDIRECT($BR4&amp;CO$1)="GB",INDIRECT($BR4&amp;CO$1)="RGB"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;CP$1)="B",INDIRECT($BR4&amp;CP$1)="RB",INDIRECT($BR4&amp;CP$1)="GB",INDIRECT($BR4&amp;CP$1)="RGB"),1,0)</f>
@@ -1842,7 +1806,7 @@
       </c>
       <c r="CZ4" s="16">
         <f ca="1">IF(OR(INDIRECT($BR4&amp;CZ$1)="R",INDIRECT($BR4&amp;CZ$1)="RG",INDIRECT($BR4&amp;CZ$1)="RB",INDIRECT($BR4&amp;CZ$1)="RGB"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA4" s="16">
         <f t="shared" ref="DA4:DA67" ca="1" si="11">IF(OR(INDIRECT($BR4&amp;DA$1)="G",INDIRECT($BR4&amp;DA$1)="RG",INDIRECT($BR4&amp;DA$1)="GB",INDIRECT($BR4&amp;DA$1)="RGB"),1,0)</f>
@@ -1902,7 +1866,7 @@
       </c>
       <c r="DP4" s="2" t="str">
         <f ca="1">"0b"&amp;BS4&amp;BT4&amp;BU4&amp;BV4&amp;BW4&amp;BX4&amp;BY4&amp;BZ4&amp;CA4&amp;CB4&amp;CC4&amp;CD4&amp;CE4&amp;CF4&amp;CG4&amp;CH4&amp;CI4&amp;CJ4&amp;CK4&amp;CL4&amp;CM4&amp;CN4&amp;CO4&amp;CP4&amp;CQ4&amp;CR4&amp;CS4&amp;CT4&amp;CU4&amp;CV4&amp;CW4&amp;CX4&amp;CY4&amp;CZ4&amp;DA4&amp;DB4&amp;DC4&amp;DD4&amp;DE4&amp;DF4&amp;DG4&amp;DH4&amp;DI4&amp;DJ4&amp;DK4&amp;DL4&amp;DM4&amp;DN4&amp;","</f>
-        <v>0b001001001001001000000100100000000100000000000000,</v>
+        <v>0b000000000000000000000010100000000000000000000000,</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1913,87 +1877,57 @@
       <c r="C5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
-      <c r="AL5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
-      <c r="AP5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
-      <c r="AV5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
-      <c r="AY5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
@@ -2037,7 +1971,7 @@
       </c>
       <c r="BX5" s="16">
         <f t="shared" ref="BX5:BX67" ca="1" si="19">IF(OR(INDIRECT($BR5&amp;BX$1)="B",INDIRECT($BR5&amp;BX$1)="RB",INDIRECT($BR5&amp;BX$1)="GB",INDIRECT($BR5&amp;BX$1)="RGB"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY5" s="16">
         <f t="shared" ref="BY5:BY67" ca="1" si="20">IF(OR(INDIRECT($BR5&amp;BY$1)="R",INDIRECT($BR5&amp;BY$1)="RG",INDIRECT($BR5&amp;BY$1)="RB",INDIRECT($BR5&amp;BY$1)="RGB"),1,0)</f>
@@ -2089,7 +2023,7 @@
       </c>
       <c r="CK5" s="16">
         <f t="shared" ref="CK5:CK67" ca="1" si="28">IF(OR(INDIRECT($BR5&amp;CK$1)="R",INDIRECT($BR5&amp;CK$1)="RG",INDIRECT($BR5&amp;CK$1)="RB",INDIRECT($BR5&amp;CK$1)="RGB"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL5" s="16">
         <f t="shared" ca="1" si="6"/>
@@ -2105,7 +2039,7 @@
       </c>
       <c r="CO5" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP5" s="16">
         <f t="shared" ref="CP5:CP67" ca="1" si="31">IF(OR(INDIRECT($BR5&amp;CP$1)="B",INDIRECT($BR5&amp;CP$1)="RB",INDIRECT($BR5&amp;CP$1)="GB",INDIRECT($BR5&amp;CP$1)="RGB"),1,0)</f>
@@ -2113,7 +2047,7 @@
       </c>
       <c r="CQ5" s="16">
         <f t="shared" ref="CQ5:CQ67" ca="1" si="32">IF(OR(INDIRECT($BR5&amp;CQ$1)="R",INDIRECT($BR5&amp;CQ$1)="RG",INDIRECT($BR5&amp;CQ$1)="RB",INDIRECT($BR5&amp;CQ$1)="RGB"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR5" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -2125,7 +2059,7 @@
       </c>
       <c r="CT5" s="16">
         <f t="shared" ref="CT5:CT67" ca="1" si="34">IF(OR(INDIRECT($BR5&amp;CT$1)="R",INDIRECT($BR5&amp;CT$1)="RG",INDIRECT($BR5&amp;CT$1)="RB",INDIRECT($BR5&amp;CT$1)="RGB"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU5" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -2161,7 +2095,7 @@
       </c>
       <c r="DC5" s="16">
         <f t="shared" ref="DC5:DC67" ca="1" si="40">IF(OR(INDIRECT($BR5&amp;DC$1)="R",INDIRECT($BR5&amp;DC$1)="RG",INDIRECT($BR5&amp;DC$1)="RB",INDIRECT($BR5&amp;DC$1)="RGB"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD5" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -2209,7 +2143,7 @@
       </c>
       <c r="DP5" s="2" t="str">
         <f t="shared" ref="DP5:DP67" ca="1" si="48">"0b"&amp;BS5&amp;BT5&amp;BU5&amp;BV5&amp;BW5&amp;BX5&amp;BY5&amp;BZ5&amp;CA5&amp;CB5&amp;CC5&amp;CD5&amp;CE5&amp;CF5&amp;CG5&amp;CH5&amp;CI5&amp;CJ5&amp;CK5&amp;CL5&amp;CM5&amp;CN5&amp;CO5&amp;CP5&amp;CQ5&amp;CR5&amp;CS5&amp;CT5&amp;CU5&amp;CV5&amp;CW5&amp;CX5&amp;CY5&amp;CZ5&amp;DA5&amp;DB5&amp;DC5&amp;DD5&amp;DE5&amp;DF5&amp;DG5&amp;DH5&amp;DI5&amp;DJ5&amp;DK5&amp;DL5&amp;DM5&amp;DN5&amp;","</f>
-        <v>0b000001000000000000100000000100000000100000000000,</v>
+        <v>0b000000000000000000000010100000000000000000000000,</v>
       </c>
     </row>
     <row r="6" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2220,93 +2154,57 @@
       <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
-      <c r="AL6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
-      <c r="AP6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
-      <c r="AX6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
-      <c r="AZ6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
@@ -2362,7 +2260,7 @@
       </c>
       <c r="CA6" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB6" s="16">
         <f t="shared" ca="1" si="22"/>
@@ -2402,7 +2300,7 @@
       </c>
       <c r="CK6" s="16">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL6" s="16">
         <f t="shared" ca="1" si="6"/>
@@ -2418,7 +2316,7 @@
       </c>
       <c r="CO6" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP6" s="16">
         <f t="shared" ca="1" si="31"/>
@@ -2426,7 +2324,7 @@
       </c>
       <c r="CQ6" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR6" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -2438,7 +2336,7 @@
       </c>
       <c r="CT6" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU6" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -2474,7 +2372,7 @@
       </c>
       <c r="DC6" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD6" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -2522,7 +2420,7 @@
       </c>
       <c r="DP6" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000001000000000100000000100000000100000000000,</v>
+        <v>0b000000000000000000000010100000000000000000000000,</v>
       </c>
     </row>
     <row r="7" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2533,90 +2431,58 @@
       <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
-      <c r="AL7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
-      <c r="AP7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
-      <c r="AU7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
-      <c r="AW7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
@@ -2659,7 +2525,7 @@
       </c>
       <c r="BX7" s="16">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="16">
         <f t="shared" ca="1" si="20"/>
@@ -2723,11 +2589,11 @@
       </c>
       <c r="CN7" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO7" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP7" s="16">
         <f t="shared" ca="1" si="31"/>
@@ -2735,7 +2601,7 @@
       </c>
       <c r="CQ7" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR7" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -2759,7 +2625,7 @@
       </c>
       <c r="CW7" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX7" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -2771,7 +2637,7 @@
       </c>
       <c r="CZ7" s="16">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA7" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -2831,7 +2697,7 @@
       </c>
       <c r="DP7" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000001000000000000000100000000100100000000000000,</v>
+        <v>0b000000000000000000000010100000000000000000000000,</v>
       </c>
     </row>
     <row r="8" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2842,101 +2708,57 @@
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
-      <c r="AL8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
-      <c r="AQ8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
-      <c r="AU8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
-      <c r="AZ8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
@@ -2980,7 +2802,7 @@
       </c>
       <c r="BX8" s="16">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY8" s="16">
         <f t="shared" ca="1" si="20"/>
@@ -2992,7 +2814,7 @@
       </c>
       <c r="CA8" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB8" s="16">
         <f t="shared" ca="1" si="22"/>
@@ -3004,7 +2826,7 @@
       </c>
       <c r="CD8" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE8" s="16">
         <f t="shared" ca="1" si="24"/>
@@ -3016,7 +2838,7 @@
       </c>
       <c r="CG8" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH8" s="16">
         <f t="shared" ca="1" si="26"/>
@@ -3048,7 +2870,7 @@
       </c>
       <c r="CO8" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP8" s="16">
         <f t="shared" ca="1" si="31"/>
@@ -3056,7 +2878,7 @@
       </c>
       <c r="CQ8" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR8" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -3148,11 +2970,11 @@
       </c>
       <c r="DN8" s="16">
         <f t="shared" ca="1" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP8" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b001001001001001000000000000000000000000000000000,</v>
+        <v>0b001000000000000000000010100000000000000000000001,</v>
       </c>
     </row>
     <row r="9" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3172,7 +2994,9 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -3255,7 +3079,7 @@
       </c>
       <c r="BX9" s="16">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY9" s="16">
         <f t="shared" ca="1" si="20"/>
@@ -3323,7 +3147,7 @@
       </c>
       <c r="CO9" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP9" s="16">
         <f t="shared" ca="1" si="31"/>
@@ -3331,7 +3155,7 @@
       </c>
       <c r="CQ9" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR9" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -3343,7 +3167,7 @@
       </c>
       <c r="CT9" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU9" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -3355,7 +3179,7 @@
       </c>
       <c r="CW9" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX9" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -3367,7 +3191,7 @@
       </c>
       <c r="CZ9" s="16">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA9" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -3379,7 +3203,7 @@
       </c>
       <c r="DC9" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD9" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -3391,7 +3215,7 @@
       </c>
       <c r="DF9" s="16">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG9" s="16">
         <f t="shared" ca="1" si="13"/>
@@ -3403,7 +3227,7 @@
       </c>
       <c r="DI9" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ9" s="16">
         <f t="shared" ca="1" si="14"/>
@@ -3411,11 +3235,11 @@
       </c>
       <c r="DK9" s="16">
         <f t="shared" ca="1" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL9" s="16">
         <f t="shared" ca="1" si="46"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM9" s="16">
         <f t="shared" ca="1" si="15"/>
@@ -3427,7 +3251,7 @@
       </c>
       <c r="DP9" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000000000000000000100100100100100100100,</v>
+        <v>0b000001000000000000000010100000000000000000001000,</v>
       </c>
     </row>
     <row r="10" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3438,12 +3262,8 @@
         <v>26</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3451,7 +3271,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -3533,7 +3355,7 @@
       </c>
       <c r="BX10" s="16">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY10" s="16">
         <f t="shared" ca="1" si="20"/>
@@ -3557,7 +3379,7 @@
       </c>
       <c r="CD10" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE10" s="16">
         <f t="shared" ca="1" si="24"/>
@@ -3601,7 +3423,7 @@
       </c>
       <c r="CO10" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP10" s="16">
         <f t="shared" ca="1" si="31"/>
@@ -3609,7 +3431,7 @@
       </c>
       <c r="CQ10" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR10" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -3621,7 +3443,7 @@
       </c>
       <c r="CT10" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU10" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -3657,7 +3479,7 @@
       </c>
       <c r="DC10" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD10" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -3677,7 +3499,7 @@
       </c>
       <c r="DH10" s="16">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI10" s="16">
         <f t="shared" ca="1" si="44"/>
@@ -3705,7 +3527,7 @@
       </c>
       <c r="DP10" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000001001001000000000000000100000000100000000000,</v>
+        <v>0b000000001000000000000010100000000000000001000000,</v>
       </c>
     </row>
     <row r="11" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3713,26 +3535,44 @@
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -3747,39 +3587,23 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
-      <c r="AQ11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
-      <c r="AV11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
@@ -3838,7 +3662,7 @@
       </c>
       <c r="CA11" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB11" s="16">
         <f t="shared" ca="1" si="22"/>
@@ -3850,7 +3674,7 @@
       </c>
       <c r="CD11" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE11" s="16">
         <f t="shared" ca="1" si="24"/>
@@ -3862,7 +3686,7 @@
       </c>
       <c r="CG11" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH11" s="16">
         <f t="shared" ca="1" si="26"/>
@@ -3894,7 +3718,7 @@
       </c>
       <c r="CO11" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP11" s="16">
         <f t="shared" ca="1" si="31"/>
@@ -3902,7 +3726,7 @@
       </c>
       <c r="CQ11" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR11" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -3914,7 +3738,7 @@
       </c>
       <c r="CT11" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU11" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -3950,7 +3774,7 @@
       </c>
       <c r="DC11" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD11" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -3958,7 +3782,7 @@
       </c>
       <c r="DE11" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF11" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -3998,7 +3822,7 @@
       </c>
       <c r="DP11" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000001000001000000000000100000000100000000000,</v>
+        <v>0b000000000001000000000010100000000000001000000000,</v>
       </c>
     </row>
     <row r="12" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4008,24 +3832,44 @@
       <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -4037,41 +3881,25 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
-      <c r="AI12" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
-      <c r="AN12" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
-      <c r="AP12" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
-      <c r="AS12" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
-      <c r="AU12" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
-      <c r="AX12" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
@@ -4153,7 +3981,7 @@
       </c>
       <c r="CG12" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH12" s="16">
         <f t="shared" ca="1" si="26"/>
@@ -4185,7 +4013,7 @@
       </c>
       <c r="CO12" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP12" s="16">
         <f t="shared" ca="1" si="31"/>
@@ -4193,7 +4021,7 @@
       </c>
       <c r="CQ12" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR12" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -4217,7 +4045,7 @@
       </c>
       <c r="CW12" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX12" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -4229,7 +4057,7 @@
       </c>
       <c r="CZ12" s="16">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA12" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -4237,7 +4065,7 @@
       </c>
       <c r="DB12" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC12" s="16">
         <f t="shared" ca="1" si="40"/>
@@ -4289,7 +4117,7 @@
       </c>
       <c r="DP12" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000000000000000000000100100000000000000,</v>
+        <v>0b000000000000001000000010100000000001000000000000,</v>
       </c>
     </row>
     <row r="13" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4297,88 +4125,54 @@
         <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
-      <c r="AI13" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
-      <c r="AN13" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
-      <c r="AS13" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
-      <c r="AX13" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
@@ -4460,7 +4254,7 @@
       </c>
       <c r="CG13" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH13" s="16">
         <f t="shared" ca="1" si="26"/>
@@ -4472,7 +4266,7 @@
       </c>
       <c r="CJ13" s="16">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK13" s="16">
         <f t="shared" ca="1" si="28"/>
@@ -4492,7 +4286,7 @@
       </c>
       <c r="CO13" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP13" s="16">
         <f t="shared" ca="1" si="31"/>
@@ -4500,7 +4294,7 @@
       </c>
       <c r="CQ13" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR13" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -4532,7 +4326,7 @@
       </c>
       <c r="CY13" s="16">
         <f t="shared" ca="1" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ13" s="16">
         <f t="shared" ca="1" si="38"/>
@@ -4596,7 +4390,7 @@
       </c>
       <c r="DP13" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000001000000000000000000000000000000000,</v>
+        <v>0b000000000000000001000010100000001000000000000000,</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4606,81 +4400,51 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
-      <c r="AH14" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-      <c r="AK14" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
-      <c r="AN14" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
-      <c r="AR14" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
-      <c r="AW14" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
@@ -4787,7 +4551,7 @@
       </c>
       <c r="CM14" s="16">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN14" s="16">
         <f t="shared" ca="1" si="30"/>
@@ -4795,7 +4559,7 @@
       </c>
       <c r="CO14" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP14" s="16">
         <f t="shared" ca="1" si="31"/>
@@ -4803,7 +4567,7 @@
       </c>
       <c r="CQ14" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR14" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -4815,7 +4579,7 @@
       </c>
       <c r="CT14" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU14" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -4823,11 +4587,11 @@
       </c>
       <c r="CV14" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW14" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX14" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -4839,7 +4603,7 @@
       </c>
       <c r="CZ14" s="16">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA14" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -4851,7 +4615,7 @@
       </c>
       <c r="DC14" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD14" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -4899,88 +4663,60 @@
       </c>
       <c r="DP14" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000000000000000000100100100100000000000,</v>
+        <v>0b000000000000000000001010100001000000000000000000,</v>
       </c>
     </row>
     <row r="15" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-      <c r="AK15" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
-      <c r="AN15" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
-      <c r="AQ15" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
-      <c r="AV15" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
@@ -5028,7 +4764,7 @@
       </c>
       <c r="BX15" s="16">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY15" s="16">
         <f t="shared" ca="1" si="20"/>
@@ -5064,7 +4800,7 @@
       </c>
       <c r="CG15" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH15" s="16">
         <f t="shared" ca="1" si="26"/>
@@ -5100,7 +4836,7 @@
       </c>
       <c r="CP15" s="16">
         <f t="shared" ca="1" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ15" s="16">
         <f t="shared" ca="1" si="32"/>
@@ -5112,7 +4848,7 @@
       </c>
       <c r="CS15" s="16">
         <f t="shared" ca="1" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT15" s="16">
         <f t="shared" ca="1" si="34"/>
@@ -5128,7 +4864,7 @@
       </c>
       <c r="CW15" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX15" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -5200,7 +4936,7 @@
       </c>
       <c r="DP15" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000001000000001000000000000000100000000000000000,</v>
+        <v>0b000000000000000000000001001000000000000000000000,</v>
       </c>
     </row>
     <row r="16" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5208,104 +4944,54 @@
         <v>32</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
-      <c r="AL16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
-      <c r="AP16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
-      <c r="AU16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
@@ -5339,7 +5025,7 @@
       </c>
       <c r="BU16" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV16" s="16">
         <f t="shared" ca="1" si="18"/>
@@ -5363,7 +5049,7 @@
       </c>
       <c r="CA16" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB16" s="16">
         <f t="shared" ca="1" si="22"/>
@@ -5387,7 +5073,7 @@
       </c>
       <c r="CG16" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH16" s="16">
         <f t="shared" ca="1" si="26"/>
@@ -5451,7 +5137,7 @@
       </c>
       <c r="CW16" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX16" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -5523,7 +5209,7 @@
       </c>
       <c r="DP16" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b001000001000001000000000000000100000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="17" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5535,10 +5221,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -5556,9 +5242,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -5614,7 +5298,7 @@
       </c>
       <c r="BU17" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV17" s="16">
         <f t="shared" ca="1" si="18"/>
@@ -5650,7 +5334,7 @@
       </c>
       <c r="CD17" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE17" s="16">
         <f t="shared" ca="1" si="24"/>
@@ -5798,7 +5482,7 @@
       </c>
       <c r="DP17" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b001000000001000000000000000000000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="18" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5811,7 +5495,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -5828,14 +5512,10 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -5967,7 +5647,7 @@
       </c>
       <c r="CN18" s="16">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO18" s="16">
         <f t="shared" ca="1" si="7"/>
@@ -5991,7 +5671,7 @@
       </c>
       <c r="CT18" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU18" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -6003,7 +5683,7 @@
       </c>
       <c r="CW18" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX18" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -6015,7 +5695,7 @@
       </c>
       <c r="CZ18" s="16">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA18" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -6027,7 +5707,7 @@
       </c>
       <c r="DC18" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD18" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -6075,7 +5755,7 @@
       </c>
       <c r="DP18" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000000000000100000100100100100000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="19" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6086,10 +5766,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -6106,12 +5786,8 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
@@ -6180,7 +5856,7 @@
       </c>
       <c r="BX19" s="16">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY19" s="16">
         <f t="shared" ca="1" si="20"/>
@@ -6192,7 +5868,7 @@
       </c>
       <c r="CA19" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB19" s="16">
         <f t="shared" ca="1" si="22"/>
@@ -6204,7 +5880,7 @@
       </c>
       <c r="CD19" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE19" s="16">
         <f t="shared" ca="1" si="24"/>
@@ -6216,7 +5892,7 @@
       </c>
       <c r="CG19" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH19" s="16">
         <f t="shared" ca="1" si="26"/>
@@ -6352,7 +6028,7 @@
       </c>
       <c r="DP19" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000001001001001000000000000000000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="20" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6372,7 +6048,7 @@
       </c>
       <c r="BU20" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV20" s="16">
         <f t="shared" ca="1" si="18"/>
@@ -6396,7 +6072,7 @@
       </c>
       <c r="CA20" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB20" s="16">
         <f t="shared" ca="1" si="22"/>
@@ -6460,7 +6136,7 @@
       </c>
       <c r="CQ20" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR20" s="16">
         <f t="shared" ca="1" si="8"/>
@@ -6472,7 +6148,7 @@
       </c>
       <c r="CT20" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU20" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -6484,7 +6160,7 @@
       </c>
       <c r="CW20" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX20" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -6496,7 +6172,7 @@
       </c>
       <c r="CZ20" s="16">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA20" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -6508,7 +6184,7 @@
       </c>
       <c r="DC20" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD20" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -6556,7 +6232,7 @@
       </c>
       <c r="DP20" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b001000001000000000000000100100100100100000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="21" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6704,7 +6380,7 @@
       </c>
       <c r="BX21" s="16">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY21" s="16">
         <f t="shared" ca="1" si="20"/>
@@ -6716,7 +6392,7 @@
       </c>
       <c r="CA21" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB21" s="16">
         <f t="shared" ca="1" si="22"/>
@@ -6728,7 +6404,7 @@
       </c>
       <c r="CD21" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE21" s="16">
         <f t="shared" ca="1" si="24"/>
@@ -6740,7 +6416,7 @@
       </c>
       <c r="CG21" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH21" s="16">
         <f t="shared" ca="1" si="26"/>
@@ -6792,7 +6468,7 @@
       </c>
       <c r="CT21" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU21" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -6876,7 +6552,7 @@
       </c>
       <c r="DP21" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000001001001001000000000000100000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="22" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7114,7 +6790,7 @@
       </c>
       <c r="CT22" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU22" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -7198,7 +6874,7 @@
       </c>
       <c r="DP22" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000000000000000000100000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="23" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7334,7 +7010,7 @@
       </c>
       <c r="BX23" s="16">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY23" s="16">
         <f t="shared" ca="1" si="20"/>
@@ -7346,7 +7022,7 @@
       </c>
       <c r="CA23" s="16">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB23" s="16">
         <f t="shared" ca="1" si="22"/>
@@ -7358,7 +7034,7 @@
       </c>
       <c r="CD23" s="16">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE23" s="16">
         <f t="shared" ca="1" si="24"/>
@@ -7434,7 +7110,7 @@
       </c>
       <c r="CW23" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX23" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -7446,7 +7122,7 @@
       </c>
       <c r="CZ23" s="16">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA23" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -7458,7 +7134,7 @@
       </c>
       <c r="DC23" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD23" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -7506,7 +7182,7 @@
       </c>
       <c r="DP23" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000001001001000000000000000000100100100000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="24" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7640,7 +7316,7 @@
       </c>
       <c r="BU24" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV24" s="16">
         <f t="shared" ca="1" si="18"/>
@@ -7688,7 +7364,7 @@
       </c>
       <c r="CG24" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH24" s="16">
         <f t="shared" ca="1" si="26"/>
@@ -7824,7 +7500,7 @@
       </c>
       <c r="DP24" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b001000000000001000000000000000000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="25" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7956,7 +7632,7 @@
       </c>
       <c r="BU25" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV25" s="16">
         <f t="shared" ca="1" si="18"/>
@@ -8004,7 +7680,7 @@
       </c>
       <c r="CG25" s="16">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH25" s="16">
         <f t="shared" ca="1" si="26"/>
@@ -8068,7 +7744,7 @@
       </c>
       <c r="CW25" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX25" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -8080,7 +7756,7 @@
       </c>
       <c r="CZ25" s="16">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA25" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -8116,7 +7792,7 @@
       </c>
       <c r="DI25" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ25" s="16">
         <f t="shared" ca="1" si="14"/>
@@ -8140,7 +7816,7 @@
       </c>
       <c r="DP25" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b001000000000001000000000000000100100000000100000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="26" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8372,7 +8048,7 @@
       </c>
       <c r="CT26" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU26" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -8408,7 +8084,7 @@
       </c>
       <c r="DC26" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD26" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -8444,7 +8120,7 @@
       </c>
       <c r="DL26" s="16">
         <f t="shared" ca="1" si="46"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM26" s="16">
         <f t="shared" ca="1" si="15"/>
@@ -8456,7 +8132,7 @@
       </c>
       <c r="DP26" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000000000000000000100000000100000000100,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="27" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8690,7 +8366,7 @@
       </c>
       <c r="CT27" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU27" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -8726,7 +8402,7 @@
       </c>
       <c r="DC27" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD27" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -8762,7 +8438,7 @@
       </c>
       <c r="DL27" s="16">
         <f t="shared" ca="1" si="46"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM27" s="16">
         <f t="shared" ca="1" si="15"/>
@@ -8774,7 +8450,7 @@
       </c>
       <c r="DP27" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000000000000000000100000000100000000100,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="28" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8996,7 +8672,7 @@
       </c>
       <c r="CT28" s="16">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU28" s="16">
         <f t="shared" ca="1" si="9"/>
@@ -9008,7 +8684,7 @@
       </c>
       <c r="CW28" s="16">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX28" s="16">
         <f t="shared" ca="1" si="10"/>
@@ -9020,7 +8696,7 @@
       </c>
       <c r="CZ28" s="16">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA28" s="16">
         <f t="shared" ca="1" si="11"/>
@@ -9032,7 +8708,7 @@
       </c>
       <c r="DC28" s="16">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD28" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -9044,7 +8720,7 @@
       </c>
       <c r="DF28" s="16">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG28" s="16">
         <f t="shared" ca="1" si="13"/>
@@ -9056,7 +8732,7 @@
       </c>
       <c r="DI28" s="16">
         <f t="shared" ca="1" si="44"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ28" s="16">
         <f t="shared" ca="1" si="14"/>
@@ -9080,7 +8756,7 @@
       </c>
       <c r="DP28" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000000000000000000100100100100100100000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="29" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9520,7 +9196,7 @@
       </c>
       <c r="BT30" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU30" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -9532,7 +9208,7 @@
       </c>
       <c r="BW30" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX30" s="16">
         <f t="shared" ca="1" si="19"/>
@@ -9544,7 +9220,7 @@
       </c>
       <c r="BZ30" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA30" s="16">
         <f t="shared" ca="1" si="21"/>
@@ -9556,7 +9232,7 @@
       </c>
       <c r="CC30" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD30" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -9568,7 +9244,7 @@
       </c>
       <c r="CF30" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG30" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -9708,7 +9384,7 @@
       </c>
       <c r="DP30" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010010010010010000000000000000000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="31" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9834,7 +9510,7 @@
       </c>
       <c r="BT31" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU31" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -9858,7 +9534,7 @@
       </c>
       <c r="BZ31" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA31" s="16">
         <f t="shared" ca="1" si="21"/>
@@ -9882,7 +9558,7 @@
       </c>
       <c r="CF31" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG31" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -10022,7 +9698,7 @@
       </c>
       <c r="DP31" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010000010000010000000000000000000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="32" spans="3:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10148,7 +9824,7 @@
       </c>
       <c r="BT32" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU32" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -10196,7 +9872,7 @@
       </c>
       <c r="CF32" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG32" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -10244,11 +9920,11 @@
       </c>
       <c r="CR32" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS32" s="16">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT32" s="16">
         <f t="shared" ca="1" si="34"/>
@@ -10292,11 +9968,11 @@
       </c>
       <c r="DD32" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE32" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -10336,7 +10012,7 @@
       </c>
       <c r="DP32" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010000000000010000000000011000000000011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="33" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10548,11 +10224,11 @@
       </c>
       <c r="CO33" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP33" s="16">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ33" s="16">
         <f t="shared" ca="1" si="32"/>
@@ -10596,11 +10272,11 @@
       </c>
       <c r="DA33" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB33" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC33" s="16">
         <f t="shared" ca="1" si="40"/>
@@ -10608,11 +10284,11 @@
       </c>
       <c r="DD33" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE33" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -10652,7 +10328,7 @@
       </c>
       <c r="DP33" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000000000000011000000000011011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="34" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10770,7 +10446,7 @@
       </c>
       <c r="BT34" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU34" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -10782,7 +10458,7 @@
       </c>
       <c r="BW34" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX34" s="16">
         <f t="shared" ca="1" si="19"/>
@@ -10794,7 +10470,7 @@
       </c>
       <c r="BZ34" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA34" s="16">
         <f t="shared" ca="1" si="21"/>
@@ -10806,7 +10482,7 @@
       </c>
       <c r="CC34" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD34" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -10818,7 +10494,7 @@
       </c>
       <c r="CF34" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG34" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -10854,11 +10530,11 @@
       </c>
       <c r="CO34" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP34" s="16">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ34" s="16">
         <f t="shared" ca="1" si="32"/>
@@ -10890,11 +10566,11 @@
       </c>
       <c r="CX34" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY34" s="16">
         <f t="shared" ca="1" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ34" s="16">
         <f t="shared" ca="1" si="38"/>
@@ -10914,11 +10590,11 @@
       </c>
       <c r="DD34" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE34" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -10958,7 +10634,7 @@
       </c>
       <c r="DP34" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010010010010010000000011000000011000011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="35" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11136,7 +10812,7 @@
       </c>
       <c r="CF35" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG35" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -11184,11 +10860,11 @@
       </c>
       <c r="CR35" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS35" s="16">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT35" s="16">
         <f t="shared" ca="1" si="34"/>
@@ -11196,11 +10872,11 @@
       </c>
       <c r="CU35" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV35" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW35" s="16">
         <f t="shared" ca="1" si="36"/>
@@ -11232,11 +10908,11 @@
       </c>
       <c r="DD35" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE35" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -11276,7 +10952,7 @@
       </c>
       <c r="DP35" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000010000000000011011000000011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="36" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11456,7 +11132,7 @@
       </c>
       <c r="CF36" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG36" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -11596,7 +11272,7 @@
       </c>
       <c r="DP36" s="2" t="str">
         <f ca="1">"0b"&amp;BS36&amp;BT36&amp;BU36&amp;BV36&amp;BW36&amp;BX36&amp;BY36&amp;BZ36&amp;CA36&amp;CB36&amp;CC36&amp;CD36&amp;CE36&amp;CF36&amp;CG36&amp;CH36&amp;CI36&amp;CJ36&amp;CK36&amp;CL36&amp;CM36&amp;CN36&amp;CO36&amp;CP36&amp;CQ36&amp;CR36&amp;CS36&amp;CT36&amp;CU36&amp;CV36&amp;CW36&amp;CX36&amp;CY36&amp;CZ36&amp;DA36&amp;DB36&amp;DC36&amp;DD36&amp;DE36&amp;DF36&amp;DG36&amp;DH36&amp;DI36&amp;DJ36&amp;DK36&amp;DL36&amp;DM36&amp;DN36&amp;","</f>
-        <v>0b000000000000010000000000000000000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="37" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11708,11 +11384,11 @@
       </c>
       <c r="CR37" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS37" s="16">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT37" s="16">
         <f t="shared" ca="1" si="34"/>
@@ -11720,11 +11396,11 @@
       </c>
       <c r="CU37" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV37" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW37" s="16">
         <f t="shared" ca="1" si="36"/>
@@ -11732,11 +11408,11 @@
       </c>
       <c r="CX37" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY37" s="16">
         <f t="shared" ca="1" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ37" s="16">
         <f t="shared" ca="1" si="38"/>
@@ -11744,11 +11420,11 @@
       </c>
       <c r="DA37" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB37" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC37" s="16">
         <f t="shared" ca="1" si="40"/>
@@ -11800,10 +11476,114 @@
       </c>
       <c r="DP37" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000000000000000011011011011000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="38" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
       <c r="BQ38" s="2">
         <v>35</v>
       </c>
@@ -11816,7 +11596,7 @@
       </c>
       <c r="BT38" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU38" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -11828,7 +11608,7 @@
       </c>
       <c r="BW38" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX38" s="16">
         <f t="shared" ca="1" si="19"/>
@@ -11840,7 +11620,7 @@
       </c>
       <c r="BZ38" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA38" s="16">
         <f t="shared" ca="1" si="21"/>
@@ -11852,7 +11632,7 @@
       </c>
       <c r="CC38" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD38" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -11864,7 +11644,7 @@
       </c>
       <c r="CF38" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG38" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -11900,11 +11680,11 @@
       </c>
       <c r="CO38" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP38" s="16">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ38" s="16">
         <f t="shared" ca="1" si="32"/>
@@ -11960,11 +11740,11 @@
       </c>
       <c r="DD38" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE38" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -12004,10 +11784,106 @@
       </c>
       <c r="DP38" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010010010010010000000011000000000000011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="39" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
       <c r="BQ39" s="2">
         <v>36</v>
       </c>
@@ -12020,7 +11896,7 @@
       </c>
       <c r="BT39" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU39" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -12044,7 +11920,7 @@
       </c>
       <c r="BZ39" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA39" s="16">
         <f t="shared" ca="1" si="21"/>
@@ -12068,7 +11944,7 @@
       </c>
       <c r="CF39" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG39" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -12104,11 +11980,11 @@
       </c>
       <c r="CO39" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP39" s="16">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ39" s="16">
         <f t="shared" ca="1" si="32"/>
@@ -12164,11 +12040,11 @@
       </c>
       <c r="DD39" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE39" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -12208,10 +12084,112 @@
       </c>
       <c r="DP39" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010000010000010000000011000000000000011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="40" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
       <c r="BQ40" s="2">
         <v>37</v>
       </c>
@@ -12224,7 +12202,7 @@
       </c>
       <c r="BT40" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU40" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -12272,7 +12250,7 @@
       </c>
       <c r="CF40" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG40" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -12320,11 +12298,11 @@
       </c>
       <c r="CR40" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS40" s="16">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT40" s="16">
         <f t="shared" ca="1" si="34"/>
@@ -12332,11 +12310,11 @@
       </c>
       <c r="CU40" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV40" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW40" s="16">
         <f t="shared" ca="1" si="36"/>
@@ -12344,11 +12322,11 @@
       </c>
       <c r="CX40" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY40" s="16">
         <f t="shared" ca="1" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ40" s="16">
         <f t="shared" ca="1" si="38"/>
@@ -12356,11 +12334,11 @@
       </c>
       <c r="DA40" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB40" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC40" s="16">
         <f t="shared" ca="1" si="40"/>
@@ -12412,10 +12390,108 @@
       </c>
       <c r="DP40" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010000000000010000000000011011011011000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="41" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
       <c r="BQ41" s="2">
         <v>38</v>
       </c>
@@ -12620,6 +12696,116 @@
       </c>
     </row>
     <row r="42" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
       <c r="BQ42" s="2">
         <v>39</v>
       </c>
@@ -12644,7 +12830,7 @@
       </c>
       <c r="BW42" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX42" s="16">
         <f t="shared" ca="1" si="19"/>
@@ -12656,7 +12842,7 @@
       </c>
       <c r="BZ42" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA42" s="16">
         <f t="shared" ca="1" si="21"/>
@@ -12668,7 +12854,7 @@
       </c>
       <c r="CC42" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD42" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -12728,11 +12914,11 @@
       </c>
       <c r="CR42" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS42" s="16">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT42" s="16">
         <f t="shared" ca="1" si="34"/>
@@ -12776,11 +12962,11 @@
       </c>
       <c r="DD42" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE42" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF42" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -12820,10 +13006,74 @@
       </c>
       <c r="DP42" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000010010010000000000000011000000000011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="43" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
       <c r="BQ43" s="2">
         <v>40</v>
       </c>
@@ -12836,7 +13086,7 @@
       </c>
       <c r="BT43" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU43" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -12884,7 +13134,7 @@
       </c>
       <c r="CF43" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG43" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -12920,11 +13170,11 @@
       </c>
       <c r="CO43" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP43" s="16">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ43" s="16">
         <f t="shared" ca="1" si="32"/>
@@ -12968,11 +13218,11 @@
       </c>
       <c r="DA43" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB43" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC43" s="16">
         <f t="shared" ca="1" si="40"/>
@@ -12980,11 +13230,11 @@
       </c>
       <c r="DD43" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE43" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF43" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -13024,10 +13274,78 @@
       </c>
       <c r="DP43" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010000000000010000000011000000000011011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="44" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
       <c r="BQ44" s="2">
         <v>41</v>
       </c>
@@ -13040,7 +13358,7 @@
       </c>
       <c r="BT44" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU44" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -13088,7 +13406,7 @@
       </c>
       <c r="CF44" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG44" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -13124,11 +13442,11 @@
       </c>
       <c r="CO44" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP44" s="16">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ44" s="16">
         <f t="shared" ca="1" si="32"/>
@@ -13160,11 +13478,11 @@
       </c>
       <c r="CX44" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY44" s="16">
         <f t="shared" ca="1" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ44" s="16">
         <f t="shared" ca="1" si="38"/>
@@ -13184,11 +13502,11 @@
       </c>
       <c r="DD44" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE44" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF44" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -13228,10 +13546,96 @@
       </c>
       <c r="DP44" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010000000000010000000011000000011000011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="45" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
       <c r="BQ45" s="2">
         <v>42</v>
       </c>
@@ -13340,11 +13744,11 @@
       </c>
       <c r="CR45" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS45" s="16">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT45" s="16">
         <f t="shared" ca="1" si="34"/>
@@ -13352,11 +13756,11 @@
       </c>
       <c r="CU45" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV45" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW45" s="16">
         <f t="shared" ca="1" si="36"/>
@@ -13388,11 +13792,11 @@
       </c>
       <c r="DD45" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE45" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF45" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -13432,10 +13836,94 @@
       </c>
       <c r="DP45" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000000000000000000011011000000011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="46" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
       <c r="BQ46" s="2">
         <v>43</v>
       </c>
@@ -13448,7 +13936,7 @@
       </c>
       <c r="BT46" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU46" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -13636,10 +14124,110 @@
       </c>
       <c r="DP46" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010000000000000000000000000000000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="47" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="1"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="1"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
       <c r="BQ47" s="2">
         <v>44</v>
       </c>
@@ -13652,7 +14240,7 @@
       </c>
       <c r="BT47" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU47" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -13676,7 +14264,7 @@
       </c>
       <c r="BZ47" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA47" s="16">
         <f t="shared" ca="1" si="21"/>
@@ -13688,7 +14276,7 @@
       </c>
       <c r="CC47" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD47" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -13700,7 +14288,7 @@
       </c>
       <c r="CF47" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG47" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -13748,11 +14336,11 @@
       </c>
       <c r="CR47" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS47" s="16">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT47" s="16">
         <f t="shared" ca="1" si="34"/>
@@ -13796,11 +14384,11 @@
       </c>
       <c r="DD47" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE47" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF47" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -13840,10 +14428,106 @@
       </c>
       <c r="DP47" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010000010010010000000000011000000000011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
     <row r="48" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
       <c r="BQ48" s="2">
         <v>45</v>
       </c>
@@ -13856,7 +14540,7 @@
       </c>
       <c r="BT48" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU48" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -13868,7 +14552,7 @@
       </c>
       <c r="BW48" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX48" s="16">
         <f t="shared" ca="1" si="19"/>
@@ -13940,11 +14624,11 @@
       </c>
       <c r="CO48" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP48" s="16">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ48" s="16">
         <f t="shared" ca="1" si="32"/>
@@ -13988,11 +14672,11 @@
       </c>
       <c r="DA48" s="16">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB48" s="16">
         <f t="shared" ca="1" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC48" s="16">
         <f t="shared" ca="1" si="40"/>
@@ -14000,11 +14684,11 @@
       </c>
       <c r="DD48" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE48" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF48" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -14044,10 +14728,104 @@
       </c>
       <c r="DP48" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010010000000000000000011000000000011011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="49" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
       <c r="BQ49" s="2">
         <v>46</v>
       </c>
@@ -14096,7 +14874,7 @@
       </c>
       <c r="CC49" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD49" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -14144,11 +14922,11 @@
       </c>
       <c r="CO49" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP49" s="16">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ49" s="16">
         <f t="shared" ca="1" si="32"/>
@@ -14180,11 +14958,11 @@
       </c>
       <c r="CX49" s="16">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY49" s="16">
         <f t="shared" ca="1" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ49" s="16">
         <f t="shared" ca="1" si="38"/>
@@ -14204,11 +14982,11 @@
       </c>
       <c r="DD49" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE49" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF49" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -14248,10 +15026,126 @@
       </c>
       <c r="DP49" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000010000000000011000000011000011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="50" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
       <c r="BQ50" s="2">
         <v>47</v>
       </c>
@@ -14288,7 +15182,7 @@
       </c>
       <c r="BZ50" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA50" s="16">
         <f t="shared" ca="1" si="21"/>
@@ -14300,7 +15194,7 @@
       </c>
       <c r="CC50" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD50" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -14360,11 +15254,11 @@
       </c>
       <c r="CR50" s="16">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS50" s="16">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT50" s="16">
         <f t="shared" ca="1" si="34"/>
@@ -14372,11 +15266,11 @@
       </c>
       <c r="CU50" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV50" s="16">
         <f t="shared" ca="1" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW50" s="16">
         <f t="shared" ca="1" si="36"/>
@@ -14408,11 +15302,11 @@
       </c>
       <c r="DD50" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE50" s="16">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF50" s="16">
         <f t="shared" ca="1" si="42"/>
@@ -14452,10 +15346,78 @@
       </c>
       <c r="DP50" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000010010000000000000011011000000011000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="51" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
       <c r="BQ51" s="2">
         <v>48</v>
       </c>
@@ -14480,7 +15442,7 @@
       </c>
       <c r="BW51" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX51" s="16">
         <f t="shared" ca="1" si="19"/>
@@ -14504,7 +15466,7 @@
       </c>
       <c r="CC51" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD51" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -14656,10 +15618,80 @@
       </c>
       <c r="DP51" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000010000010000000000000000000000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="52" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
       <c r="BQ52" s="2">
         <v>49</v>
       </c>
@@ -14672,7 +15704,7 @@
       </c>
       <c r="BT52" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU52" s="16">
         <f t="shared" ca="1" si="17"/>
@@ -14684,7 +15716,7 @@
       </c>
       <c r="BW52" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX52" s="16">
         <f t="shared" ca="1" si="19"/>
@@ -14696,7 +15728,7 @@
       </c>
       <c r="BZ52" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA52" s="16">
         <f t="shared" ca="1" si="21"/>
@@ -14708,7 +15740,7 @@
       </c>
       <c r="CC52" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD52" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -14720,7 +15752,7 @@
       </c>
       <c r="CF52" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG52" s="16">
         <f t="shared" ca="1" si="25"/>
@@ -14860,10 +15892,80 @@
       </c>
       <c r="DP52" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b010010010010010000000000000000000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="53" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
+      <c r="BH53" s="1"/>
+      <c r="BI53" s="1"/>
+      <c r="BJ53" s="1"/>
+      <c r="BK53" s="1"/>
+      <c r="BL53" s="1"/>
+      <c r="BM53" s="1"/>
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="1"/>
       <c r="BQ53" s="2">
         <v>50</v>
       </c>
@@ -14912,7 +16014,7 @@
       </c>
       <c r="CC53" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD53" s="16">
         <f t="shared" ca="1" si="23"/>
@@ -15064,10 +16166,10 @@
       </c>
       <c r="DP53" s="2" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0b000000000010000000000000000000000000000000000000,</v>
+        <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="54" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BQ54" s="2">
         <v>51</v>
       </c>
@@ -15271,7 +16373,79 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="55" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
       <c r="BQ55" s="2">
         <v>52</v>
       </c>
@@ -15475,7 +16649,87 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="56" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="1"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
+      <c r="BM56" s="1"/>
+      <c r="BN56" s="1"/>
+      <c r="BO56" s="1"/>
       <c r="BQ56" s="2">
         <v>53</v>
       </c>
@@ -15679,7 +16933,91 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="57" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="1"/>
+      <c r="BF57" s="1"/>
+      <c r="BG57" s="1"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="1"/>
+      <c r="BK57" s="1"/>
+      <c r="BL57" s="1"/>
+      <c r="BM57" s="1"/>
+      <c r="BN57" s="1"/>
+      <c r="BO57" s="1"/>
       <c r="BQ57" s="2">
         <v>54</v>
       </c>
@@ -15883,7 +17221,91 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="58" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+      <c r="BF58" s="1"/>
+      <c r="BG58" s="1"/>
+      <c r="BH58" s="1"/>
+      <c r="BI58" s="1"/>
+      <c r="BJ58" s="1"/>
+      <c r="BK58" s="1"/>
+      <c r="BL58" s="1"/>
+      <c r="BM58" s="1"/>
+      <c r="BN58" s="1"/>
+      <c r="BO58" s="1"/>
       <c r="BQ58" s="2">
         <v>55</v>
       </c>
@@ -16087,7 +17509,95 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="59" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+      <c r="BH59" s="1"/>
+      <c r="BI59" s="1"/>
+      <c r="BJ59" s="1"/>
+      <c r="BK59" s="1"/>
+      <c r="BL59" s="1"/>
+      <c r="BM59" s="1"/>
+      <c r="BN59" s="1"/>
+      <c r="BO59" s="1"/>
       <c r="BQ59" s="2">
         <v>56</v>
       </c>
@@ -16291,7 +17801,95 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="60" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+      <c r="BH60" s="1"/>
+      <c r="BI60" s="1"/>
+      <c r="BJ60" s="1"/>
+      <c r="BK60" s="1"/>
+      <c r="BL60" s="1"/>
+      <c r="BM60" s="1"/>
+      <c r="BN60" s="1"/>
+      <c r="BO60" s="1"/>
       <c r="BQ60" s="2">
         <v>57</v>
       </c>
@@ -16495,7 +18093,99 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="61" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="1"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="1"/>
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="1"/>
       <c r="BQ61" s="2">
         <v>58</v>
       </c>
@@ -16699,7 +18389,99 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="62" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1"/>
+      <c r="AU62" s="1"/>
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="1"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="1"/>
+      <c r="BH62" s="1"/>
+      <c r="BI62" s="1"/>
+      <c r="BJ62" s="1"/>
+      <c r="BK62" s="1"/>
+      <c r="BL62" s="1"/>
+      <c r="BM62" s="1"/>
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="1"/>
       <c r="BQ62" s="2">
         <v>59</v>
       </c>
@@ -16903,7 +18685,99 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="63" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
       <c r="BQ63" s="2">
         <v>60</v>
       </c>
@@ -17107,7 +18981,99 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="64" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
+      <c r="BI64" s="1"/>
+      <c r="BJ64" s="1"/>
+      <c r="BK64" s="1"/>
+      <c r="BL64" s="1"/>
+      <c r="BM64" s="1"/>
+      <c r="BN64" s="1"/>
+      <c r="BO64" s="1"/>
       <c r="BQ64" s="2">
         <v>61</v>
       </c>
@@ -17311,7 +19277,95 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="65" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1"/>
+      <c r="AU65" s="1"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="1"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="1"/>
+      <c r="AZ65" s="1"/>
+      <c r="BA65" s="1"/>
+      <c r="BB65" s="1"/>
+      <c r="BC65" s="1"/>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="1"/>
+      <c r="BF65" s="1"/>
+      <c r="BG65" s="1"/>
+      <c r="BH65" s="1"/>
+      <c r="BI65" s="1"/>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="1"/>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="1"/>
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="1"/>
       <c r="BQ65" s="2">
         <v>62</v>
       </c>
@@ -17515,7 +19569,95 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="66" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
+      <c r="BD66" s="1"/>
+      <c r="BE66" s="1"/>
+      <c r="BF66" s="1"/>
+      <c r="BG66" s="1"/>
+      <c r="BH66" s="1"/>
+      <c r="BI66" s="1"/>
+      <c r="BJ66" s="1"/>
+      <c r="BK66" s="1"/>
+      <c r="BL66" s="1"/>
+      <c r="BM66" s="1"/>
+      <c r="BN66" s="1"/>
+      <c r="BO66" s="1"/>
       <c r="BQ66" s="2">
         <v>63</v>
       </c>
@@ -17719,7 +19861,91 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
-    <row r="67" spans="69:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="1"/>
+      <c r="BJ67" s="1"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="1"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
       <c r="BQ67" s="2">
         <v>64</v>
       </c>
@@ -17923,61 +20149,349 @@
         <v>0b000000000000000000000000000000000000000000000000,</v>
       </c>
     </row>
+    <row r="68" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="1"/>
+      <c r="BJ68" s="1"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+      <c r="BM68" s="1"/>
+      <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+    </row>
+    <row r="69" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+    </row>
+    <row r="70" spans="4:120" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="1"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+      <c r="BM70" s="1"/>
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="BS2:BU2"/>
+    <mergeCell ref="BV2:BX2"/>
+    <mergeCell ref="BY2:CA2"/>
+    <mergeCell ref="CB2:CD2"/>
     <mergeCell ref="CE2:CG2"/>
     <mergeCell ref="CH2:CJ2"/>
     <mergeCell ref="CK2:CM2"/>
     <mergeCell ref="CN2:CP2"/>
     <mergeCell ref="CQ2:CS2"/>
-    <mergeCell ref="BS2:BU2"/>
-    <mergeCell ref="BV2:BX2"/>
-    <mergeCell ref="BY2:CA2"/>
-    <mergeCell ref="CB2:CD2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:BO19">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"RGB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"GB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>"RB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"RG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="35" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:BO36">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>"RGB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"GB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"RB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"RG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:BO53">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>"RGB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"GB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"RB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"RG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:BO70">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"RGB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"GB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"RB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
